--- a/data/pca/factorExposure/factorExposure_2009-11-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007268282724655746</v>
+        <v>0.01644260454113422</v>
       </c>
       <c r="C2">
-        <v>-0.001546022291346807</v>
+        <v>0.0008486089762847232</v>
       </c>
       <c r="D2">
-        <v>-0.009781820287295448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009009667645773049</v>
+      </c>
+      <c r="E2">
+        <v>-0.001167165831119236</v>
+      </c>
+      <c r="F2">
+        <v>0.01172846408359565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1087181535106323</v>
+        <v>0.09363887724365648</v>
       </c>
       <c r="C4">
-        <v>0.001667200451367631</v>
+        <v>0.01475653043681703</v>
       </c>
       <c r="D4">
-        <v>-0.04686031654985716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08516784838371258</v>
+      </c>
+      <c r="E4">
+        <v>-0.02847982548370969</v>
+      </c>
+      <c r="F4">
+        <v>-0.0318895976792116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1405630336407288</v>
+        <v>0.1585991012658056</v>
       </c>
       <c r="C6">
-        <v>-0.001515702284075045</v>
+        <v>0.02581143418025224</v>
       </c>
       <c r="D6">
-        <v>0.03931186587077944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02208537624000646</v>
+      </c>
+      <c r="E6">
+        <v>-0.01105277826782986</v>
+      </c>
+      <c r="F6">
+        <v>-0.04496125986900972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07844453954666464</v>
+        <v>0.06316809073284857</v>
       </c>
       <c r="C7">
-        <v>0.0137757093106774</v>
+        <v>-0.001659964661123223</v>
       </c>
       <c r="D7">
-        <v>-0.02437649032803721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05234867851664295</v>
+      </c>
+      <c r="E7">
+        <v>-0.009228506289418006</v>
+      </c>
+      <c r="F7">
+        <v>-0.04716367691869647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06625715750633417</v>
+        <v>0.05700396357340527</v>
       </c>
       <c r="C8">
-        <v>0.02259748491112493</v>
+        <v>-0.01360917274738355</v>
       </c>
       <c r="D8">
-        <v>0.007597499119876477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03305350018018025</v>
+      </c>
+      <c r="E8">
+        <v>-0.0174100081531147</v>
+      </c>
+      <c r="F8">
+        <v>0.02671317328886591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09133214763744796</v>
+        <v>0.07096428659128023</v>
       </c>
       <c r="C9">
-        <v>0.0008509155413447251</v>
+        <v>0.01044161420296528</v>
       </c>
       <c r="D9">
-        <v>-0.04377427651854698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08679062307717389</v>
+      </c>
+      <c r="E9">
+        <v>-0.02264402074747902</v>
+      </c>
+      <c r="F9">
+        <v>-0.04727690221854823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04586810255979073</v>
+        <v>0.09367460494959803</v>
       </c>
       <c r="C10">
-        <v>-0.001497014827717949</v>
+        <v>0.02090199918349075</v>
       </c>
       <c r="D10">
-        <v>0.1275070955074466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1683515714452653</v>
+      </c>
+      <c r="E10">
+        <v>0.03464842517312535</v>
+      </c>
+      <c r="F10">
+        <v>0.05413245345550242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.1024494767013497</v>
+        <v>0.08802775968422383</v>
       </c>
       <c r="C11">
-        <v>0.002118272042118234</v>
+        <v>0.01050556697792479</v>
       </c>
       <c r="D11">
-        <v>-0.07221226823250759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1165959458219955</v>
+      </c>
+      <c r="E11">
+        <v>-0.04585957614355123</v>
+      </c>
+      <c r="F11">
+        <v>-0.02181558056375107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1078671604595741</v>
+        <v>0.09182051908199873</v>
       </c>
       <c r="C12">
-        <v>0.004775491118409177</v>
+        <v>0.007563330643595331</v>
       </c>
       <c r="D12">
-        <v>-0.07589107060505354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1326229117576541</v>
+      </c>
+      <c r="E12">
+        <v>-0.04765368608862527</v>
+      </c>
+      <c r="F12">
+        <v>-0.0278155480666486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04526515605932804</v>
+        <v>0.04226357669613609</v>
       </c>
       <c r="C13">
-        <v>0.002168989849388129</v>
+        <v>0.002873783807368908</v>
       </c>
       <c r="D13">
-        <v>-0.02661110038732685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05272183791568303</v>
+      </c>
+      <c r="E13">
+        <v>0.007840537839368566</v>
+      </c>
+      <c r="F13">
+        <v>-0.002551782106240284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02393821011296302</v>
+        <v>0.02404778453996072</v>
       </c>
       <c r="C14">
-        <v>-0.01041810453826044</v>
+        <v>0.01401431722518012</v>
       </c>
       <c r="D14">
-        <v>-0.01918622475506298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03249472717937831</v>
+      </c>
+      <c r="E14">
+        <v>-0.01701430780297159</v>
+      </c>
+      <c r="F14">
+        <v>-0.01282540085037527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04249102069979813</v>
+        <v>0.03315517805351608</v>
       </c>
       <c r="C15">
-        <v>0.0001792642913345349</v>
+        <v>0.004721670278652931</v>
       </c>
       <c r="D15">
-        <v>-0.01075452225545291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04486154356243395</v>
+      </c>
+      <c r="E15">
+        <v>-0.005619711456943266</v>
+      </c>
+      <c r="F15">
+        <v>-0.02352535723759727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08917940601984653</v>
+        <v>0.07422039444450017</v>
       </c>
       <c r="C16">
-        <v>0.009136424660810589</v>
+        <v>0.00117971986342399</v>
       </c>
       <c r="D16">
-        <v>-0.06875206889247984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1269746600371717</v>
+      </c>
+      <c r="E16">
+        <v>-0.06192184998563612</v>
+      </c>
+      <c r="F16">
+        <v>-0.02575478662968789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.525197773889712e-05</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.239967015855683e-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>2.039880440183565e-05</v>
+      </c>
+      <c r="E17">
+        <v>-5.999491039833504e-05</v>
+      </c>
+      <c r="F17">
+        <v>0.0003499762658207485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03413644354711583</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003284648395768996</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01724843432377895</v>
+      </c>
+      <c r="E18">
+        <v>0.007940061358361507</v>
+      </c>
+      <c r="F18">
+        <v>0.007773171553343695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06401814817711488</v>
+        <v>0.06111166439057557</v>
       </c>
       <c r="C20">
-        <v>0.005189767826271773</v>
+        <v>-0.0001231548919957887</v>
       </c>
       <c r="D20">
-        <v>-0.02067379200884828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07791479217973228</v>
+      </c>
+      <c r="E20">
+        <v>-0.05532794004369133</v>
+      </c>
+      <c r="F20">
+        <v>-0.02448369918765506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04138670726954161</v>
+        <v>0.04103840442150808</v>
       </c>
       <c r="C21">
-        <v>-0.00323437692741413</v>
+        <v>0.006642419545596379</v>
       </c>
       <c r="D21">
-        <v>-0.008483671188244989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03728080089655036</v>
+      </c>
+      <c r="E21">
+        <v>0.005150185305189907</v>
+      </c>
+      <c r="F21">
+        <v>0.02523272545558563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02386531148112717</v>
+        <v>0.04316512891661768</v>
       </c>
       <c r="C22">
-        <v>0.002141913072035603</v>
+        <v>0.0008168374962495995</v>
       </c>
       <c r="D22">
-        <v>0.02273358641702282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006291914351717579</v>
+      </c>
+      <c r="E22">
+        <v>-0.03299398052933085</v>
+      </c>
+      <c r="F22">
+        <v>0.04022960682302777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02380448207918664</v>
+        <v>0.04314106818869338</v>
       </c>
       <c r="C23">
-        <v>0.002138347362660159</v>
+        <v>0.0008086363312224018</v>
       </c>
       <c r="D23">
-        <v>0.02274075152736795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006308297306578092</v>
+      </c>
+      <c r="E23">
+        <v>-0.03317804433473719</v>
+      </c>
+      <c r="F23">
+        <v>0.04019262844503643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09806454792299875</v>
+        <v>0.08020457495101294</v>
       </c>
       <c r="C24">
-        <v>0.01037987936480515</v>
+        <v>0.001719439363191628</v>
       </c>
       <c r="D24">
-        <v>-0.07679516446348042</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1216502924988092</v>
+      </c>
+      <c r="E24">
+        <v>-0.04908199262315075</v>
+      </c>
+      <c r="F24">
+        <v>-0.02652866255724802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09959353344557824</v>
+        <v>0.08498092402273411</v>
       </c>
       <c r="C25">
-        <v>0.007558285338454348</v>
+        <v>0.004308448550560521</v>
       </c>
       <c r="D25">
-        <v>-0.07781385621315468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1092945914819346</v>
+      </c>
+      <c r="E25">
+        <v>-0.03211605333411843</v>
+      </c>
+      <c r="F25">
+        <v>-0.0266897262542977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05189097749742393</v>
+        <v>0.05746318393273536</v>
       </c>
       <c r="C26">
-        <v>-0.00948125113072149</v>
+        <v>0.01395269619841731</v>
       </c>
       <c r="D26">
-        <v>-0.002400947300406431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04131168222869189</v>
+      </c>
+      <c r="E26">
+        <v>-0.02726707868775477</v>
+      </c>
+      <c r="F26">
+        <v>0.006598598461474337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09489356524914801</v>
+        <v>0.1406324902139141</v>
       </c>
       <c r="C28">
-        <v>0.01125461900516808</v>
+        <v>0.02099359237002447</v>
       </c>
       <c r="D28">
-        <v>0.2491180242585577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2616911101559986</v>
+      </c>
+      <c r="E28">
+        <v>0.06754415516550524</v>
+      </c>
+      <c r="F28">
+        <v>-0.009545616706633781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02677315831780484</v>
+        <v>0.02877187727932636</v>
       </c>
       <c r="C29">
-        <v>-0.005545287251301192</v>
+        <v>0.008848682385224179</v>
       </c>
       <c r="D29">
-        <v>-0.009306591251926606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03106364259865927</v>
+      </c>
+      <c r="E29">
+        <v>-0.01135664427468274</v>
+      </c>
+      <c r="F29">
+        <v>0.01360040041923606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1047997437490401</v>
+        <v>0.06000657440109095</v>
       </c>
       <c r="C30">
-        <v>0.01317389512196593</v>
+        <v>0.002984903906383348</v>
       </c>
       <c r="D30">
-        <v>-0.03971767514445614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08854922338399406</v>
+      </c>
+      <c r="E30">
+        <v>-0.01950191200175895</v>
+      </c>
+      <c r="F30">
+        <v>-0.07926738497526312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03561330669623324</v>
+        <v>0.05031248890902745</v>
       </c>
       <c r="C31">
-        <v>-0.010820228938094</v>
+        <v>0.01518937570868487</v>
       </c>
       <c r="D31">
-        <v>-0.01436905128060974</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02472046459373983</v>
+      </c>
+      <c r="E31">
+        <v>-0.02752549586556663</v>
+      </c>
+      <c r="F31">
+        <v>0.001958100607727775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04892786136237827</v>
+        <v>0.05003384865195304</v>
       </c>
       <c r="C32">
-        <v>0.00812160378509201</v>
+        <v>-0.001920688165216583</v>
       </c>
       <c r="D32">
-        <v>-0.008502893342151431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03620572499834469</v>
+      </c>
+      <c r="E32">
+        <v>-0.03114590400191669</v>
+      </c>
+      <c r="F32">
+        <v>-0.003815425547155413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1053527909149206</v>
+        <v>0.08986806806543816</v>
       </c>
       <c r="C33">
-        <v>0.006844550179704008</v>
+        <v>0.007241031543768968</v>
       </c>
       <c r="D33">
-        <v>-0.04777865330152822</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0996353765573571</v>
+      </c>
+      <c r="E33">
+        <v>-0.04373341723176347</v>
+      </c>
+      <c r="F33">
+        <v>-0.03638070964198892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.09096855066800254</v>
+        <v>0.06777634473470653</v>
       </c>
       <c r="C34">
-        <v>0.002047195496687641</v>
+        <v>0.0101777793091792</v>
       </c>
       <c r="D34">
-        <v>-0.0690100637065509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1083048320517304</v>
+      </c>
+      <c r="E34">
+        <v>-0.03495690686949879</v>
+      </c>
+      <c r="F34">
+        <v>-0.03288068234243655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02181042732388188</v>
+        <v>0.02474012344068229</v>
       </c>
       <c r="C35">
-        <v>0.00178623102676429</v>
+        <v>0.002452693580540684</v>
       </c>
       <c r="D35">
-        <v>-0.002991129050085633</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0112974837229625</v>
+      </c>
+      <c r="E35">
+        <v>-0.01174779628714537</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001093412840955826</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01544101109518653</v>
+        <v>0.02747973972761775</v>
       </c>
       <c r="C36">
-        <v>-0.007529027750766065</v>
+        <v>0.006791844513337258</v>
       </c>
       <c r="D36">
-        <v>-0.02533853986233957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03957777940448932</v>
+      </c>
+      <c r="E36">
+        <v>-0.01601741198368945</v>
+      </c>
+      <c r="F36">
+        <v>-0.01588230173901088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3.784409600009185e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001982292878242424</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-3.45563119049628e-05</v>
+      </c>
+      <c r="E37">
+        <v>0.000366021626831604</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006283358383269678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001765237209142452</v>
+        <v>0.0009760313614998405</v>
       </c>
       <c r="C38">
-        <v>0.0002436115243257707</v>
+        <v>0.0001456495908088901</v>
       </c>
       <c r="D38">
-        <v>0.001471249373135165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004257037342433149</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001358098344983136</v>
+      </c>
+      <c r="F38">
+        <v>0.00104680030577252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1371970689991129</v>
+        <v>0.105307127438104</v>
       </c>
       <c r="C39">
-        <v>0.00340575554525386</v>
+        <v>0.01570766507822825</v>
       </c>
       <c r="D39">
-        <v>-0.1124612463426774</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.154242018320898</v>
+      </c>
+      <c r="E39">
+        <v>-0.05919665723477466</v>
+      </c>
+      <c r="F39">
+        <v>-0.03004843954880813</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02792744020184886</v>
+        <v>0.04272737663398456</v>
       </c>
       <c r="C40">
-        <v>-0.004613501284831316</v>
+        <v>0.006857613839871905</v>
       </c>
       <c r="D40">
-        <v>0.0134913080373611</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03115936217578351</v>
+      </c>
+      <c r="E40">
+        <v>-0.002870513232968333</v>
+      </c>
+      <c r="F40">
+        <v>0.0157475576005844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0204041741005267</v>
+        <v>0.02772948155122325</v>
       </c>
       <c r="C41">
-        <v>-0.004168222757227243</v>
+        <v>0.006754320002315692</v>
       </c>
       <c r="D41">
-        <v>0.004097248237345557</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01010552564365486</v>
+      </c>
+      <c r="E41">
+        <v>-0.01253325482181066</v>
+      </c>
+      <c r="F41">
+        <v>0.006975767197561063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01967456706836957</v>
+        <v>0.04047190571408379</v>
       </c>
       <c r="C43">
-        <v>-0.006181434297537398</v>
+        <v>0.006897049003669287</v>
       </c>
       <c r="D43">
-        <v>-0.006654585314723386</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01931979593395601</v>
+      </c>
+      <c r="E43">
+        <v>-0.02464950462056143</v>
+      </c>
+      <c r="F43">
+        <v>0.01383034105468335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1090377792189431</v>
+        <v>0.08035059776995003</v>
       </c>
       <c r="C44">
-        <v>-0.005144921681761177</v>
+        <v>0.01963072774688653</v>
       </c>
       <c r="D44">
-        <v>-0.03841167911075841</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0972407508915961</v>
+      </c>
+      <c r="E44">
+        <v>-0.06266421583930251</v>
+      </c>
+      <c r="F44">
+        <v>-0.1554488733873687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.00565393384699378</v>
+        <v>0.02378848033991299</v>
       </c>
       <c r="C46">
-        <v>-0.004136428666885864</v>
+        <v>0.00371206078670707</v>
       </c>
       <c r="D46">
-        <v>0.002736015821764041</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01291048676881119</v>
+      </c>
+      <c r="E46">
+        <v>-0.02246974728212406</v>
+      </c>
+      <c r="F46">
+        <v>0.007604962255333751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04227796124544624</v>
+        <v>0.0522141788297985</v>
       </c>
       <c r="C47">
-        <v>0.001861839556801179</v>
+        <v>0.003302052588291575</v>
       </c>
       <c r="D47">
-        <v>0.02589324754883247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01373663126206081</v>
+      </c>
+      <c r="E47">
+        <v>-0.02374257941761822</v>
+      </c>
+      <c r="F47">
+        <v>0.03241045022746967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05253820685094522</v>
+        <v>0.04977853373561049</v>
       </c>
       <c r="C48">
-        <v>0.004512391967834829</v>
+        <v>0.002078721427350746</v>
       </c>
       <c r="D48">
-        <v>-0.0270509103578986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05019988700449139</v>
+      </c>
+      <c r="E48">
+        <v>0.006177912021266325</v>
+      </c>
+      <c r="F48">
+        <v>-0.01013125527492677</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2221505374235571</v>
+        <v>0.2013693086439748</v>
       </c>
       <c r="C49">
-        <v>0.02335395900221216</v>
+        <v>0.01893546048971135</v>
       </c>
       <c r="D49">
-        <v>0.0391861970722391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.00698066466168256</v>
+      </c>
+      <c r="E49">
+        <v>-0.03236887401872928</v>
+      </c>
+      <c r="F49">
+        <v>-0.03561223292091006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03981571352302014</v>
+        <v>0.05048889996056218</v>
       </c>
       <c r="C50">
-        <v>-0.006058212247570023</v>
+        <v>0.01096166438183375</v>
       </c>
       <c r="D50">
-        <v>-0.007730121573652495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02390503579243803</v>
+      </c>
+      <c r="E50">
+        <v>-0.02953655895032569</v>
+      </c>
+      <c r="F50">
+        <v>-0.009563453814446531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0008056318465258824</v>
+        <v>0.0004065032135023254</v>
       </c>
       <c r="C51">
-        <v>7.139789010238082e-05</v>
+        <v>0.0001116589068934342</v>
       </c>
       <c r="D51">
-        <v>0.0009548675996004698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0002180725196966802</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001473177203640424</v>
+      </c>
+      <c r="F51">
+        <v>-0.000930163124032035</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.159787697235564</v>
+        <v>0.1464661369517935</v>
       </c>
       <c r="C52">
-        <v>0.01405945257934285</v>
+        <v>0.01620931462584186</v>
       </c>
       <c r="D52">
-        <v>-0.02752498998551238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0430883004942622</v>
+      </c>
+      <c r="E52">
+        <v>-0.01979953831268902</v>
+      </c>
+      <c r="F52">
+        <v>-0.04237807335256683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.173331095164148</v>
+        <v>0.1713719846650841</v>
       </c>
       <c r="C53">
-        <v>0.01586267331002574</v>
+        <v>0.01917521647291098</v>
       </c>
       <c r="D53">
-        <v>0.00634576428758185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005002738265610055</v>
+      </c>
+      <c r="E53">
+        <v>-0.03103986647724731</v>
+      </c>
+      <c r="F53">
+        <v>-0.07226022423554693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02718884977882893</v>
+        <v>0.02155129456024031</v>
       </c>
       <c r="C54">
-        <v>-0.007269203020557814</v>
+        <v>0.01189957015764834</v>
       </c>
       <c r="D54">
-        <v>-0.01054941926672797</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03418475638624726</v>
+      </c>
+      <c r="E54">
+        <v>-0.01740171983006353</v>
+      </c>
+      <c r="F54">
+        <v>0.004360027478781231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.10506682735838</v>
+        <v>0.1140052426712975</v>
       </c>
       <c r="C55">
-        <v>0.004479907530296754</v>
+        <v>0.01674388118551347</v>
       </c>
       <c r="D55">
-        <v>0.008015680912007703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008022445929496762</v>
+      </c>
+      <c r="E55">
+        <v>-0.02703143267667834</v>
+      </c>
+      <c r="F55">
+        <v>-0.04778314120759338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1720103928770561</v>
+        <v>0.1764338768974824</v>
       </c>
       <c r="C56">
-        <v>0.01802072930989026</v>
+        <v>0.01687045018325977</v>
       </c>
       <c r="D56">
-        <v>0.02015249294207382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001020334967199206</v>
+      </c>
+      <c r="E56">
+        <v>-0.03513430078873529</v>
+      </c>
+      <c r="F56">
+        <v>-0.05085912934683408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03732841529908965</v>
+        <v>0.04504270521125255</v>
       </c>
       <c r="C58">
-        <v>-0.0006725093732085699</v>
+        <v>-0.0004378816766445283</v>
       </c>
       <c r="D58">
-        <v>-0.03862403774664109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0710366911837009</v>
+      </c>
+      <c r="E58">
+        <v>-0.02803129618195157</v>
+      </c>
+      <c r="F58">
+        <v>0.03749665937120204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.11967288325954</v>
+        <v>0.1680147652822577</v>
       </c>
       <c r="C59">
-        <v>0.01362137757372451</v>
+        <v>0.02139767810725236</v>
       </c>
       <c r="D59">
-        <v>0.2186053479542084</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2180589339103119</v>
+      </c>
+      <c r="E59">
+        <v>0.04559135394592306</v>
+      </c>
+      <c r="F59">
+        <v>0.03552619489998015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.260614491594419</v>
+        <v>0.2320026045084077</v>
       </c>
       <c r="C60">
-        <v>0.05180045328865531</v>
+        <v>-0.00280255655130476</v>
       </c>
       <c r="D60">
-        <v>-0.02119471334604998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04232666725839856</v>
+      </c>
+      <c r="E60">
+        <v>-0.01190600171632087</v>
+      </c>
+      <c r="F60">
+        <v>0.00619351021171409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.11344325374949</v>
+        <v>0.08123150529684063</v>
       </c>
       <c r="C61">
-        <v>0.005369083448877579</v>
+        <v>0.01143893412761618</v>
       </c>
       <c r="D61">
-        <v>-0.07033538535286804</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1176917479129567</v>
+      </c>
+      <c r="E61">
+        <v>-0.03886626950227432</v>
+      </c>
+      <c r="F61">
+        <v>-0.01207286883421713</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1693952201294094</v>
+        <v>0.169401815042097</v>
       </c>
       <c r="C62">
-        <v>0.01427612368301103</v>
+        <v>0.02014258740258427</v>
       </c>
       <c r="D62">
-        <v>0.0160540642057761</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0058196479464915</v>
+      </c>
+      <c r="E62">
+        <v>-0.0337514036877419</v>
+      </c>
+      <c r="F62">
+        <v>-0.0335682089986423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04782061748856947</v>
+        <v>0.04572939378091304</v>
       </c>
       <c r="C63">
-        <v>0.003289879482098422</v>
+        <v>0.001686545308531068</v>
       </c>
       <c r="D63">
-        <v>-0.03313018256825957</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05918793917904764</v>
+      </c>
+      <c r="E63">
+        <v>-0.02205203288546844</v>
+      </c>
+      <c r="F63">
+        <v>-0.004234996364270096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09816303349050376</v>
+        <v>0.1098692962789852</v>
       </c>
       <c r="C64">
-        <v>0.002149699702831145</v>
+        <v>0.01097839840796107</v>
       </c>
       <c r="D64">
-        <v>-0.003783282190342623</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0439320439578232</v>
+      </c>
+      <c r="E64">
+        <v>-0.02409215754122273</v>
+      </c>
+      <c r="F64">
+        <v>-0.02466849941549336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.127707726265189</v>
+        <v>0.1486768671848431</v>
       </c>
       <c r="C65">
-        <v>-0.008540094970973799</v>
+        <v>0.03297040123229875</v>
       </c>
       <c r="D65">
-        <v>0.02928126151792882</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04108512229329266</v>
+      </c>
+      <c r="E65">
+        <v>-0.004647621681048422</v>
+      </c>
+      <c r="F65">
+        <v>-0.03956149017487509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1664689790694479</v>
+        <v>0.1245134335800967</v>
       </c>
       <c r="C66">
-        <v>0.01035513047018409</v>
+        <v>0.01371370520994747</v>
       </c>
       <c r="D66">
-        <v>-0.09886470580701914</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1423866304782924</v>
+      </c>
+      <c r="E66">
+        <v>-0.06574801143282497</v>
+      </c>
+      <c r="F66">
+        <v>-0.03289441171200617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06475066293903088</v>
+        <v>0.05974418917115863</v>
       </c>
       <c r="C67">
-        <v>0.006582786914446682</v>
+        <v>0.003154679309527367</v>
       </c>
       <c r="D67">
-        <v>-0.02053935186260499</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05539262167475894</v>
+      </c>
+      <c r="E67">
+        <v>-0.0174012168432385</v>
+      </c>
+      <c r="F67">
+        <v>0.03296563885562282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07900165890544301</v>
+        <v>0.1162108585012763</v>
       </c>
       <c r="C68">
-        <v>-0.002315629638459122</v>
+        <v>0.03190407659378367</v>
       </c>
       <c r="D68">
-        <v>0.2285618347119452</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2605849046881658</v>
+      </c>
+      <c r="E68">
+        <v>0.08624873793670874</v>
+      </c>
+      <c r="F68">
+        <v>-0.005153405497981109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0360087690219766</v>
+        <v>0.03993301490699798</v>
       </c>
       <c r="C69">
-        <v>0.004654911186033296</v>
+        <v>0.001252845167443265</v>
       </c>
       <c r="D69">
-        <v>0.009875508733768626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00738478352623291</v>
+      </c>
+      <c r="E69">
+        <v>-0.0222507758012227</v>
+      </c>
+      <c r="F69">
+        <v>-0.001589129206106453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02930027004968334</v>
+        <v>0.06616102768854326</v>
       </c>
       <c r="C70">
-        <v>0.02736602436136753</v>
+        <v>-0.02773919698199766</v>
       </c>
       <c r="D70">
-        <v>0.0273165862556229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02410113963845412</v>
+      </c>
+      <c r="E70">
+        <v>0.03688259324293025</v>
+      </c>
+      <c r="F70">
+        <v>0.1846055585860687</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09411542881414192</v>
+        <v>0.1358712035465779</v>
       </c>
       <c r="C71">
-        <v>-0.003352905465489617</v>
+        <v>0.03615538808146591</v>
       </c>
       <c r="D71">
-        <v>0.2442063577224846</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2730567633299757</v>
+      </c>
+      <c r="E71">
+        <v>0.09657443822895437</v>
+      </c>
+      <c r="F71">
+        <v>-0.0104692258493162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1350304074204446</v>
+        <v>0.142071204032949</v>
       </c>
       <c r="C72">
-        <v>-0.000513141689673308</v>
+        <v>0.02619007826205745</v>
       </c>
       <c r="D72">
-        <v>0.02951479594750248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001053377303004981</v>
+      </c>
+      <c r="E72">
+        <v>-0.03847697375393744</v>
+      </c>
+      <c r="F72">
+        <v>-0.0332451076656188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2079330664534356</v>
+        <v>0.2028101288686637</v>
       </c>
       <c r="C73">
-        <v>0.02666313907090296</v>
+        <v>0.01236200270898929</v>
       </c>
       <c r="D73">
-        <v>0.03371907018393899</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01697841014587217</v>
+      </c>
+      <c r="E73">
+        <v>-0.06406899859902072</v>
+      </c>
+      <c r="F73">
+        <v>-0.03470661375532503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1028299162625511</v>
+        <v>0.09452203620607487</v>
       </c>
       <c r="C74">
-        <v>0.007641722165784184</v>
+        <v>0.01323688708283396</v>
       </c>
       <c r="D74">
-        <v>0.001898735430031438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01690913940885649</v>
+      </c>
+      <c r="E74">
+        <v>-0.04370126760466045</v>
+      </c>
+      <c r="F74">
+        <v>-0.05835776425225599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1378317450359651</v>
+        <v>0.127451556216941</v>
       </c>
       <c r="C75">
-        <v>-0.001975761558653886</v>
+        <v>0.02798146180043461</v>
       </c>
       <c r="D75">
-        <v>0.00497326776667954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03004066704899624</v>
+      </c>
+      <c r="E75">
+        <v>-0.05752902698031483</v>
+      </c>
+      <c r="F75">
+        <v>-0.02085335725724726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08591352859099653</v>
+        <v>0.08697876776040683</v>
       </c>
       <c r="C77">
-        <v>0.0001588603896788862</v>
+        <v>0.007940973453440274</v>
       </c>
       <c r="D77">
-        <v>-0.07552953760842339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1139340559874965</v>
+      </c>
+      <c r="E77">
+        <v>-0.03874565433428373</v>
+      </c>
+      <c r="F77">
+        <v>-0.0337855985163965</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1420582968251854</v>
+        <v>0.1008880073813386</v>
       </c>
       <c r="C78">
-        <v>-0.02054950190659685</v>
+        <v>0.03953833459562722</v>
       </c>
       <c r="D78">
-        <v>-0.02444661001661038</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1156688745068096</v>
+      </c>
+      <c r="E78">
+        <v>-0.07384475656851236</v>
+      </c>
+      <c r="F78">
+        <v>-0.04607738090662652</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1559505488155455</v>
+        <v>0.1639294834936386</v>
       </c>
       <c r="C79">
-        <v>0.006411201951590399</v>
+        <v>0.02253394151255879</v>
       </c>
       <c r="D79">
-        <v>0.0208170175127242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01365063550682572</v>
+      </c>
+      <c r="E79">
+        <v>-0.04526693331154867</v>
+      </c>
+      <c r="F79">
+        <v>-0.01090394626790614</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08785675891078262</v>
+        <v>0.08274458824795439</v>
       </c>
       <c r="C80">
-        <v>0.01439286488424286</v>
+        <v>-0.001130748345741231</v>
       </c>
       <c r="D80">
-        <v>-0.02849890207083759</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05667256550895342</v>
+      </c>
+      <c r="E80">
+        <v>-0.03624345965648677</v>
+      </c>
+      <c r="F80">
+        <v>0.02180494432558684</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.126858367536689</v>
+        <v>0.1203456642713188</v>
       </c>
       <c r="C81">
-        <v>-0.007699091160385463</v>
+        <v>0.03186141259881176</v>
       </c>
       <c r="D81">
-        <v>-0.006161016640765632</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01446782258620549</v>
+      </c>
+      <c r="E81">
+        <v>-0.05609843855841302</v>
+      </c>
+      <c r="F81">
+        <v>-0.01824170811011751</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1705836031348394</v>
+        <v>0.165304112255613</v>
       </c>
       <c r="C82">
-        <v>0.01014547350646496</v>
+        <v>0.02433478838768195</v>
       </c>
       <c r="D82">
-        <v>0.002100246374791699</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003616692803525356</v>
+      </c>
+      <c r="E82">
+        <v>-0.02778378907849313</v>
+      </c>
+      <c r="F82">
+        <v>-0.08208757331121536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06925086243478309</v>
+        <v>0.05950108053737557</v>
       </c>
       <c r="C83">
-        <v>0.006501629220394149</v>
+        <v>0.002691383935538906</v>
       </c>
       <c r="D83">
-        <v>-0.02867706923396542</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05107534771604212</v>
+      </c>
+      <c r="E83">
+        <v>-0.00476483425328811</v>
+      </c>
+      <c r="F83">
+        <v>0.02960789793442873</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07690279762752163</v>
+        <v>0.0588079154253727</v>
       </c>
       <c r="C84">
-        <v>-0.0009125897096859817</v>
+        <v>0.01117579751800469</v>
       </c>
       <c r="D84">
-        <v>-0.03490155223778936</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06327700699096464</v>
+      </c>
+      <c r="E84">
+        <v>-0.006173905661361249</v>
+      </c>
+      <c r="F84">
+        <v>-0.00435437761294915</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1376390054613206</v>
+        <v>0.1362585861697432</v>
       </c>
       <c r="C85">
-        <v>-0.001684283758048151</v>
+        <v>0.02786945264368373</v>
       </c>
       <c r="D85">
-        <v>0.01072881964554204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009266240587016914</v>
+      </c>
+      <c r="E85">
+        <v>-0.03680115148290823</v>
+      </c>
+      <c r="F85">
+        <v>-0.04651089130504864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.07571612999583348</v>
+        <v>0.0958123856343403</v>
       </c>
       <c r="C86">
-        <v>0.01142128250512548</v>
+        <v>-0.005122620909386907</v>
       </c>
       <c r="D86">
-        <v>0.09592806042066573</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04012552133196315</v>
+      </c>
+      <c r="E86">
+        <v>-0.2195373258924166</v>
+      </c>
+      <c r="F86">
+        <v>0.9081497664543099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1359303979828986</v>
+        <v>0.09641165116711849</v>
       </c>
       <c r="C87">
-        <v>-0.001677411648094891</v>
+        <v>0.01968677817245522</v>
       </c>
       <c r="D87">
-        <v>-0.05241721676099968</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09434505752747156</v>
+      </c>
+      <c r="E87">
+        <v>0.05308735963970326</v>
+      </c>
+      <c r="F87">
+        <v>-0.04949860701017963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0562085676585845</v>
+        <v>0.06073474964248114</v>
       </c>
       <c r="C88">
-        <v>0.003673867853969192</v>
+        <v>0.002126474737940827</v>
       </c>
       <c r="D88">
-        <v>-0.01377898313620853</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04915550395643074</v>
+      </c>
+      <c r="E88">
+        <v>-0.02394253301585071</v>
+      </c>
+      <c r="F88">
+        <v>-0.01340468816724152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1002531145790222</v>
+        <v>0.1320921137969256</v>
       </c>
       <c r="C89">
-        <v>0.02079611932530421</v>
+        <v>0.01292562313359625</v>
       </c>
       <c r="D89">
-        <v>0.2564972832348429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2468795416796926</v>
+      </c>
+      <c r="E89">
+        <v>0.08964439108042757</v>
+      </c>
+      <c r="F89">
+        <v>0.008087437701631768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1015430984049722</v>
+        <v>0.151104254263674</v>
       </c>
       <c r="C90">
-        <v>2.838755126795623e-05</v>
+        <v>0.0327408541564312</v>
       </c>
       <c r="D90">
-        <v>0.2449371549266323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2712364415162601</v>
+      </c>
+      <c r="E90">
+        <v>0.1128992115537424</v>
+      </c>
+      <c r="F90">
+        <v>0.00496247328625907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1092577515745201</v>
+        <v>0.1205529446849618</v>
       </c>
       <c r="C91">
-        <v>0.004238232131222716</v>
+        <v>0.01920818011506165</v>
       </c>
       <c r="D91">
-        <v>0.03341575080125311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01478089546332604</v>
+      </c>
+      <c r="E91">
+        <v>-0.05585072111240852</v>
+      </c>
+      <c r="F91">
+        <v>0.001259187028085528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1020567172749407</v>
+        <v>0.1476247988097399</v>
       </c>
       <c r="C92">
-        <v>0.01569581868861867</v>
+        <v>0.02386204678279909</v>
       </c>
       <c r="D92">
-        <v>0.2561611606148865</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2920975614036692</v>
+      </c>
+      <c r="E92">
+        <v>0.1018163815922624</v>
+      </c>
+      <c r="F92">
+        <v>0.01220745701875574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1059902805410802</v>
+        <v>0.1517655251928282</v>
       </c>
       <c r="C93">
-        <v>0.006244513441707077</v>
+        <v>0.02817544595934466</v>
       </c>
       <c r="D93">
-        <v>0.2547517496155722</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2686574993802603</v>
+      </c>
+      <c r="E93">
+        <v>0.07788164333653791</v>
+      </c>
+      <c r="F93">
+        <v>-0.003269356922985995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1460411341922516</v>
+        <v>0.1296284489483312</v>
       </c>
       <c r="C94">
-        <v>0.003081408340473107</v>
+        <v>0.0246191875588139</v>
       </c>
       <c r="D94">
-        <v>-0.009417717098664426</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04268994212708403</v>
+      </c>
+      <c r="E94">
+        <v>-0.05698030694719878</v>
+      </c>
+      <c r="F94">
+        <v>-0.03777695553888241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1236899261987269</v>
+        <v>0.1273190618648351</v>
       </c>
       <c r="C95">
-        <v>0.01188813320278372</v>
+        <v>0.003489288225100424</v>
       </c>
       <c r="D95">
-        <v>-0.04508618157724304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09331064704490794</v>
+      </c>
+      <c r="E95">
+        <v>-0.04677190507020919</v>
+      </c>
+      <c r="F95">
+        <v>0.005922370445222929</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.08049008056035706</v>
+        <v>0.1067122762197971</v>
       </c>
       <c r="C96">
-        <v>0.9915007774286587</v>
+        <v>-0.9874098101593922</v>
       </c>
       <c r="D96">
-        <v>0.0243555665378639</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04899343996642652</v>
+      </c>
+      <c r="E96">
+        <v>-0.05490109201361128</v>
+      </c>
+      <c r="F96">
+        <v>-0.0415385894714551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1759452619440924</v>
+        <v>0.1920729828236013</v>
       </c>
       <c r="C97">
-        <v>0.04053138987171685</v>
+        <v>-0.007638226526442375</v>
       </c>
       <c r="D97">
-        <v>0.06634138471283378</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01642356599730616</v>
+      </c>
+      <c r="E97">
+        <v>-0.01874479158586979</v>
+      </c>
+      <c r="F97">
+        <v>0.07912646321460262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1982286656315967</v>
+        <v>0.2055009490928022</v>
       </c>
       <c r="C98">
-        <v>0.02984817261012996</v>
+        <v>0.007052721516196055</v>
       </c>
       <c r="D98">
-        <v>-0.004686678295084751</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01272378060369997</v>
+      </c>
+      <c r="E98">
+        <v>0.08281824798543548</v>
+      </c>
+      <c r="F98">
+        <v>0.09385523999943443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05562698012723057</v>
+        <v>0.05527065930229064</v>
       </c>
       <c r="C99">
-        <v>0.01274025775028966</v>
+        <v>-0.00462506028603595</v>
       </c>
       <c r="D99">
-        <v>-0.007734187718719579</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03934298455819377</v>
+      </c>
+      <c r="E99">
+        <v>-0.02272358079060689</v>
+      </c>
+      <c r="F99">
+        <v>-0.001495472111515038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1671359973306926</v>
+        <v>0.1257237040103584</v>
       </c>
       <c r="C100">
-        <v>0.06276446102952633</v>
+        <v>-0.05454983207837497</v>
       </c>
       <c r="D100">
-        <v>-0.6229513973090008</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3437397517749582</v>
+      </c>
+      <c r="E100">
+        <v>0.8882609027970929</v>
+      </c>
+      <c r="F100">
+        <v>0.1484309035834862</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02644558895164997</v>
+        <v>0.0287321551188273</v>
       </c>
       <c r="C101">
-        <v>-0.005574954156190064</v>
+        <v>0.008875169408104866</v>
       </c>
       <c r="D101">
-        <v>-0.008524966329373041</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03066599802610276</v>
+      </c>
+      <c r="E101">
+        <v>-0.01072990571056981</v>
+      </c>
+      <c r="F101">
+        <v>0.01478838220020121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
